--- a/data/inits/mono_all_inits.xlsx
+++ b/data/inits/mono_all_inits.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dkm/Documents/Talmy_research/Zinser_lab/Projects/Monocultures/data/inits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1F28D002-1DFD-1F42-9E4B-0A0A80A9DF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFADE6C-06EC-904C-B906-6A2F31D09447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="2000" windowWidth="21160" windowHeight="14900" xr2:uid="{65D5A29D-F27F-DE43-AECD-F9AE60171155}"/>
   </bookViews>
   <sheets>
     <sheet name="mono_all_inits" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>strain</t>
   </si>
@@ -114,6 +114,15 @@
   </si>
   <si>
     <t>k2</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>ksp</t>
+  </si>
+  <si>
+    <t>dp</t>
   </si>
 </sst>
 </file>
@@ -162,13 +171,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FB8182-3C76-C54D-B4A2-95557FF9341A}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -495,48 +503,57 @@
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -552,32 +569,42 @@
       <c r="E2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2">
+        <f>D2/E2</f>
+        <v>80000</v>
+      </c>
+      <c r="G2">
+        <v>0.2</v>
+      </c>
+      <c r="H2" s="4">
         <v>1.8E-3</v>
       </c>
-      <c r="G2" s="4">
+      <c r="I2" s="4">
         <v>8.5000000000000001E-7</v>
       </c>
-      <c r="H2">
-        <v>0.2</v>
-      </c>
-      <c r="I2" s="1">
-        <v>6</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="K2" s="2">
+      <c r="J2" s="4">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>0.2</v>
+      </c>
+      <c r="L2" s="1">
+        <v>6</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N2" s="2">
         <v>80</v>
       </c>
-      <c r="L2">
+      <c r="O2">
         <v>50000</v>
       </c>
-      <c r="M2">
+      <c r="P2">
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -593,32 +620,42 @@
       <c r="E3">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3">
+        <f t="shared" ref="F3:F13" si="0">D3/E3</f>
+        <v>80000</v>
+      </c>
+      <c r="G3">
+        <v>0.2</v>
+      </c>
+      <c r="H3" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="G3" s="4">
+      <c r="I3" s="4">
         <v>1.1000000000000001E-6</v>
       </c>
-      <c r="H3">
-        <v>0.2</v>
-      </c>
-      <c r="I3" s="1">
-        <v>6</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="K3" s="2">
+      <c r="J3" s="4">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>0.2</v>
+      </c>
+      <c r="L3" s="1">
+        <v>6</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N3" s="2">
         <v>80</v>
       </c>
-      <c r="L3">
+      <c r="O3">
         <v>50000</v>
       </c>
-      <c r="M3">
+      <c r="P3">
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -634,32 +671,42 @@
       <c r="E4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+      <c r="G4">
+        <v>0.2</v>
+      </c>
+      <c r="H4" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="G4" s="4">
+      <c r="I4" s="4">
         <v>1.1000000000000001E-6</v>
       </c>
-      <c r="H4">
-        <v>0.2</v>
-      </c>
-      <c r="I4" s="1">
-        <v>6</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="K4" s="2">
+      <c r="J4" s="4">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>0.2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>6</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N4" s="2">
         <v>80</v>
       </c>
-      <c r="L4">
+      <c r="O4">
         <v>50000</v>
       </c>
-      <c r="M4">
+      <c r="P4">
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -676,31 +723,41 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F5">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+      <c r="G5">
+        <v>0.2</v>
+      </c>
+      <c r="H5">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="G5" s="4">
+      <c r="I5" s="4">
         <v>6.9999999999999997E-7</v>
       </c>
-      <c r="H5">
-        <v>0.2</v>
-      </c>
-      <c r="I5" s="1">
-        <v>6</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="K5" s="2">
+      <c r="J5" s="4">
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>0.2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>6</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N5" s="2">
         <v>80</v>
       </c>
-      <c r="L5">
+      <c r="O5">
         <v>50000</v>
       </c>
-      <c r="M5">
+      <c r="P5">
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -717,31 +774,41 @@
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="F6">
+        <f t="shared" si="0"/>
+        <v>29999.999999999996</v>
+      </c>
+      <c r="G6">
+        <v>0.2</v>
+      </c>
+      <c r="H6">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G6" s="4">
+      <c r="I6" s="4">
         <v>4.9999999999999998E-8</v>
       </c>
-      <c r="H6">
-        <v>0.2</v>
-      </c>
-      <c r="I6" s="1">
-        <v>6</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="K6" s="2">
+      <c r="J6" s="4">
+        <v>7</v>
+      </c>
+      <c r="K6">
+        <v>0.2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>6</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N6" s="2">
         <v>80</v>
       </c>
-      <c r="L6">
+      <c r="O6">
         <v>50000</v>
       </c>
-      <c r="M6">
+      <c r="P6">
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -758,31 +825,41 @@
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="F7">
+        <f t="shared" si="0"/>
+        <v>29999.999999999996</v>
+      </c>
+      <c r="G7">
+        <v>0.2</v>
+      </c>
+      <c r="H7">
         <v>0.04</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>1E-4</v>
       </c>
-      <c r="H7">
-        <v>0.2</v>
-      </c>
-      <c r="I7" s="1">
-        <v>6</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="J7" s="4">
+        <v>7</v>
+      </c>
+      <c r="K7">
+        <v>0.2</v>
+      </c>
+      <c r="L7" s="1">
+        <v>6</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N7" s="2">
         <v>80</v>
       </c>
-      <c r="L7">
+      <c r="O7">
         <v>50000</v>
       </c>
-      <c r="M7">
+      <c r="P7">
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -799,31 +876,41 @@
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="F8">
+        <f t="shared" si="0"/>
+        <v>29999.999999999996</v>
+      </c>
+      <c r="G8">
+        <v>0.2</v>
+      </c>
+      <c r="H8">
         <v>0.04</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>1E-4</v>
       </c>
-      <c r="H8">
-        <v>0.2</v>
-      </c>
-      <c r="I8" s="1">
-        <v>6</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="K8" s="2">
+      <c r="J8" s="4">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <v>0.2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>6</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N8" s="2">
         <v>80</v>
       </c>
-      <c r="L8">
+      <c r="O8">
         <v>50000</v>
       </c>
-      <c r="M8">
+      <c r="P8">
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -839,32 +926,42 @@
       <c r="E9">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>29999.999999999996</v>
+      </c>
+      <c r="G9">
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="4">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G9" s="4">
+      <c r="I9" s="4">
         <v>2.9999999999999997E-8</v>
       </c>
-      <c r="H9">
-        <v>0.2</v>
-      </c>
-      <c r="I9" s="1">
-        <v>6</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="K9" s="2">
+      <c r="J9" s="4">
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <v>0.2</v>
+      </c>
+      <c r="L9" s="1">
+        <v>6</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N9" s="2">
         <v>80</v>
       </c>
-      <c r="L9">
+      <c r="O9">
         <v>50000</v>
       </c>
-      <c r="M9">
+      <c r="P9">
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -881,31 +978,41 @@
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="F10">
+        <f t="shared" si="0"/>
+        <v>29999.999999999996</v>
+      </c>
+      <c r="G10">
+        <v>0.2</v>
+      </c>
+      <c r="H10">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="G10" s="4">
+      <c r="I10" s="4">
         <v>1.4999999999999999E-7</v>
       </c>
-      <c r="H10">
-        <v>0.2</v>
-      </c>
-      <c r="I10" s="1">
-        <v>6</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="K10" s="2">
+      <c r="J10" s="4">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>0.2</v>
+      </c>
+      <c r="L10" s="1">
+        <v>6</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N10" s="2">
         <v>80</v>
       </c>
-      <c r="L10">
+      <c r="O10">
         <v>50000</v>
       </c>
-      <c r="M10">
+      <c r="P10">
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -922,31 +1029,41 @@
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="F11">
+        <f t="shared" si="0"/>
+        <v>29999.999999999996</v>
+      </c>
+      <c r="G11">
+        <v>0.2</v>
+      </c>
+      <c r="H11">
         <v>0.04</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>1E-4</v>
       </c>
-      <c r="H11">
-        <v>0.2</v>
-      </c>
-      <c r="I11" s="1">
-        <v>6</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="K11" s="2">
+      <c r="J11" s="4">
+        <v>7</v>
+      </c>
+      <c r="K11">
+        <v>0.2</v>
+      </c>
+      <c r="L11" s="1">
+        <v>6</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N11" s="2">
         <v>80</v>
       </c>
-      <c r="L11">
+      <c r="O11">
         <v>50000</v>
       </c>
-      <c r="M11">
+      <c r="P11">
         <v>10000</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -963,31 +1080,41 @@
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="F12">
+        <f t="shared" si="0"/>
+        <v>29999.999999999996</v>
+      </c>
+      <c r="G12">
+        <v>0.2</v>
+      </c>
+      <c r="H12">
         <v>0.04</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>1E-4</v>
       </c>
-      <c r="H12">
-        <v>0.2</v>
-      </c>
-      <c r="I12" s="1">
-        <v>6</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="K12" s="2">
+      <c r="J12" s="4">
+        <v>7</v>
+      </c>
+      <c r="K12">
+        <v>0.2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>6</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N12" s="2">
         <v>80</v>
       </c>
-      <c r="L12">
+      <c r="O12">
         <v>50000</v>
       </c>
-      <c r="M12">
+      <c r="P12">
         <v>10000</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1004,27 +1131,37 @@
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="F13">
+        <f t="shared" si="0"/>
+        <v>29999.999999999996</v>
+      </c>
+      <c r="G13">
+        <v>0.2</v>
+      </c>
+      <c r="H13">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="G13" s="4">
+      <c r="I13" s="4">
         <v>2.4999999999999999E-7</v>
       </c>
-      <c r="H13">
-        <v>0.2</v>
-      </c>
-      <c r="I13" s="1">
-        <v>6</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="K13" s="2">
+      <c r="J13" s="4">
+        <v>7</v>
+      </c>
+      <c r="K13">
+        <v>0.2</v>
+      </c>
+      <c r="L13" s="1">
+        <v>6</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N13" s="2">
         <v>80</v>
       </c>
-      <c r="L13">
+      <c r="O13">
         <v>50000</v>
       </c>
-      <c r="M13">
+      <c r="P13">
         <v>10000</v>
       </c>
     </row>
